--- a/extracted_features/Llama-2-7b-Chat-GGUF_k_5_cs_500_co_100.xlsx
+++ b/extracted_features/Llama-2-7b-Chat-GGUF_k_5_cs_500_co_100.xlsx
@@ -674,11 +674,7 @@
           <t>Yoshi Exchange</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Hybrid Constant Function Market Makers (CFMMs)</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>Cannot determine</t>
